--- a/InputData/trans/HVSbVT/Historical Vehicle Sales by Vehicle Technology.xlsx
+++ b/InputData/trans/HVSbVT/Historical Vehicle Sales by Vehicle Technology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\trans\HVSbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F005B5-2737-4296-94EA-9EC8D21A93E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3660BBA-ADE7-47AC-AC94-CBF6C616C50C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{2D0C701F-39D8-4AB9-AD20-A6E416BE73C3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="7" activeTab="12" xr2:uid="{2D0C701F-39D8-4AB9-AD20-A6E416BE73C3}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -322,13 +322,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07D391A-B897-4382-8400-A7281DA24296}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -1335,94 +1336,94 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1523,94 +1524,94 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -2895,94 +2896,94 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -3083,94 +3084,94 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -3878,7 +3879,7 @@
   <dimension ref="A1:BJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:BJ8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4455,94 +4456,94 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="C4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="D4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="E4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="F4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="G4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="H4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="I4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="J4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="K4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="L4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="M4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="N4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="O4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="P4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="Q4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="R4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="S4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="T4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="U4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="V4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="W4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="X4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="Y4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="Z4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="AA4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="AB4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="AC4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="AD4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="AE4" s="3">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -5437,8 +5438,8 @@
   </sheetPr>
   <dimension ref="A1:BJ8"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AE7" sqref="A1:BJ8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:BJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6015,94 +6016,94 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -6964,7 +6965,7 @@
   <dimension ref="A1:BJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:BJ8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8524,8 +8525,8 @@
   </sheetPr>
   <dimension ref="A1:BJ10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:BJ8"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2:BJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8815,97 +8816,97 @@
       <c r="AE2" s="3">
         <v>0</v>
       </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
+      <c r="AF2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9003,97 +9004,97 @@
       <c r="AE3" s="3">
         <v>0</v>
       </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
+      <c r="AF3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9102,186 +9103,186 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="C4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="D4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="E4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="F4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="G4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="H4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="I4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="J4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="K4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="L4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="M4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="N4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="O4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="P4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="Q4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="R4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="S4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="T4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="U4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="V4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="W4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="X4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="Y4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="Z4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="AA4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="AB4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="AC4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="AD4" s="3">
-        <v>15000000</v>
+        <v>800000</v>
       </c>
       <c r="AE4" s="3">
-        <v>15000000</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
+        <v>800000</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9379,97 +9380,97 @@
       <c r="AE5" s="3">
         <v>0</v>
       </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
+      <c r="AF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9567,97 +9568,97 @@
       <c r="AE6" s="3">
         <v>0</v>
       </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9755,97 +9756,97 @@
       <c r="AE7" s="3">
         <v>0</v>
       </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
+      <c r="AF7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9943,97 +9944,97 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
+      <c r="AF8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10085,7 +10086,7 @@
   <dimension ref="A1:BJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:BJ8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10662,94 +10663,94 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -10850,94 +10851,94 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="M5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="R5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="S5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="T5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="U5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="V5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="W5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="X5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Z5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="AA5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="AB5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="AC5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="AD5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="AE5" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -11644,8 +11645,8 @@
   </sheetPr>
   <dimension ref="A1:BJ10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:BJ8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12222,94 +12223,94 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -12410,94 +12411,94 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="L5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="M5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="R5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="S5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="T5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="U5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="V5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="W5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="X5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="Y5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="Z5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="AA5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="AB5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="AC5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="AD5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="AE5" s="3">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -13204,8 +13205,8 @@
   </sheetPr>
   <dimension ref="A1:BJ10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:BJ8"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:BJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13782,94 +13783,94 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -13970,94 +13971,94 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -15342,94 +15343,94 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -15530,94 +15531,94 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -16902,94 +16903,94 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -17090,94 +17091,94 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -18462,94 +18463,94 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="3">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -18650,94 +18651,94 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF5">
         <v>0</v>

--- a/InputData/trans/HVSbVT/Historical Vehicle Sales by Vehicle Technology.xlsx
+++ b/InputData/trans/HVSbVT/Historical Vehicle Sales by Vehicle Technology.xlsx
@@ -8,27 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\trans\HVSbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3660BBA-ADE7-47AC-AC94-CBF6C616C50C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3853113B-D3CA-4943-977E-9999E712CBBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="7" activeTab="12" xr2:uid="{2D0C701F-39D8-4AB9-AD20-A6E416BE73C3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{2D0C701F-39D8-4AB9-AD20-A6E416BE73C3}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="HVSbVT-LDVs-psgr" sheetId="3" r:id="rId2"/>
-    <sheet name="HVSbVT-LDVs-frgt" sheetId="4" r:id="rId3"/>
-    <sheet name="HVSbVT-HDVs-psgr" sheetId="5" r:id="rId4"/>
-    <sheet name="HVSbVT-HDVs-frgt" sheetId="6" r:id="rId5"/>
-    <sheet name="HVSbVT-aircraft-psgr" sheetId="7" r:id="rId6"/>
-    <sheet name="HVSbVT-aircraft-frgt" sheetId="8" r:id="rId7"/>
-    <sheet name="HVSbVT-rail-psgr" sheetId="9" r:id="rId8"/>
-    <sheet name="HVSbVT-rail-frgt" sheetId="10" r:id="rId9"/>
-    <sheet name="HVSbVT-ships-psgr" sheetId="11" r:id="rId10"/>
-    <sheet name="HVSbVT-ships-frgt" sheetId="12" r:id="rId11"/>
-    <sheet name="HVSbVT-motorbikes-psgr" sheetId="13" r:id="rId12"/>
-    <sheet name="HVSbVT-motorbikes-frgt" sheetId="14" r:id="rId13"/>
+    <sheet name="FRED Data" sheetId="16" r:id="rId2"/>
+    <sheet name="HVSbVT-LDVs-psgr" sheetId="3" r:id="rId3"/>
+    <sheet name="HVSbVT-LDVs-frgt" sheetId="4" r:id="rId4"/>
+    <sheet name="HVSbVT-HDVs-psgr" sheetId="5" r:id="rId5"/>
+    <sheet name="HVSbVT-HDVs-frgt" sheetId="6" r:id="rId6"/>
+    <sheet name="HVSbVT-aircraft-psgr" sheetId="7" r:id="rId7"/>
+    <sheet name="HVSbVT-aircraft-frgt" sheetId="8" r:id="rId8"/>
+    <sheet name="HVSbVT-rail-psgr" sheetId="9" r:id="rId9"/>
+    <sheet name="HVSbVT-rail-frgt" sheetId="10" r:id="rId10"/>
+    <sheet name="HVSbVT-ships-psgr" sheetId="11" r:id="rId11"/>
+    <sheet name="HVSbVT-ships-frgt" sheetId="12" r:id="rId12"/>
+    <sheet name="HVSbVT-motorbikes-psgr" sheetId="13" r:id="rId13"/>
+    <sheet name="HVSbVT-motorbikes-frgt" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="89">
   <si>
     <t>Sources:</t>
   </si>
@@ -274,12 +276,141 @@
   <si>
     <t>year2050</t>
   </si>
+  <si>
+    <t>Table 1-15:  Annual U.S. Motor Vehicle Production and Domestic Sales (Thousands of units)</t>
+  </si>
+  <si>
+    <t>Production, total</t>
+  </si>
+  <si>
+    <t>Passenger cars</t>
+  </si>
+  <si>
+    <r>
+      <t>Commercial vehicles</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Domestic sales, total</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <r>
+      <t>KEY:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> U = data are unavailable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Includes trucks under 10,000 pounds GVWR, such as compact and conventional pickups, sport utility vehicles, minivans and vans, and trucks and buses over 10,000 pounds GVWR. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Domestic Sales includes U.S. sales of cars produced in U.S., Canada, and Mexico. Sales from previous year's inventory can also contribute to sales numbers exceeding production.</t>
+    </r>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wards Intelligence, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wards Automotive Yearbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Southfield, MI: Annual Issues), North America Car &amp; Truck Production and U.S. Vehicle Sales by Year, and similar tables in earlier editions.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.bts.gov/content/annual-us-motor-vehicle-production-and-factory-wholesale-sales-thousands-units</t>
+  </si>
+  <si>
+    <t>Frequency: Annual</t>
+  </si>
+  <si>
+    <t>observation_date</t>
+  </si>
+  <si>
+    <t>ALTSALES</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/ALTSALES#0</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="###0.00_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_W_)"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +432,82 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -310,7 +517,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -318,11 +525,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -330,9 +596,78 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Data" xfId="2" xr:uid="{613CD994-FAE3-4AF2-A5A0-B3D41A186885}"/>
+    <cellStyle name="Hed Side" xfId="3" xr:uid="{BA912E28-76D5-46DC-ABB3-9FEED20A42AA}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Source Hed" xfId="4" xr:uid="{39440446-07C0-46EC-B196-E990B2075C93}"/>
+    <cellStyle name="Title-2" xfId="1" xr:uid="{4855508D-0AA1-4F29-B79A-D05E5BBE31D7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -725,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07D391A-B897-4382-8400-A7281DA24296}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,13 +1081,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ABD2A4-A6DA-40C4-B868-075591F70DAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20D7FC0-26D3-4A54-89AD-73A474F216BE}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2312,7 +2657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7085CE89-CA43-4EE2-83DB-0B2D5AFB45EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ABD2A4-A6DA-40C4-B868-075591F70DAA}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3872,14 +4217,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0FF4B3-5389-449F-BB7D-4340EBC56E29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7085CE89-CA43-4EE2-83DB-0B2D5AFB45EA}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:BJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:BJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4456,94 +4801,94 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -4644,94 +4989,94 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE5" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -5432,13 +5777,1573 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0FF4B3-5389-449F-BB7D-4340EBC56E29}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:BJ10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="J4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="K4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="L4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="M4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="N4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="O4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="P4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="R4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="S4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="T4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="U4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="V4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="W4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="X4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7DD2A1-B018-44D3-AB0B-5C93DA691A7E}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:BJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:BJ4"/>
     </sheetView>
   </sheetViews>
@@ -6957,15 +8862,1659 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00B3CCC-EE5A-422E-9D8E-8D4804556D13}">
+  <dimension ref="A1:AK15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="6" customWidth="1"/>
+    <col min="2" max="37" width="6.7109375" style="6" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+    </row>
+    <row r="2" spans="1:37" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8">
+        <v>1960</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1965</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1970</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1975</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1980</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1985</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1990</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1991</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1992</v>
+      </c>
+      <c r="K2" s="8">
+        <v>1993</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1994</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1995</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1996</v>
+      </c>
+      <c r="O2" s="8">
+        <v>1997</v>
+      </c>
+      <c r="P2" s="8">
+        <v>1998</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>1999</v>
+      </c>
+      <c r="R2" s="8">
+        <v>2000</v>
+      </c>
+      <c r="S2" s="8">
+        <v>2001</v>
+      </c>
+      <c r="T2" s="8">
+        <v>2002</v>
+      </c>
+      <c r="U2" s="8">
+        <v>2003</v>
+      </c>
+      <c r="V2" s="8">
+        <v>2004</v>
+      </c>
+      <c r="W2" s="8">
+        <v>2005</v>
+      </c>
+      <c r="X2" s="8">
+        <v>2006</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>2007</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>2008</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>2009</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>2010</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>2011</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>2012</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>2013</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>2014</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>2015</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>2016</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>2017</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>2018</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="11">
+        <v>7894.22</v>
+      </c>
+      <c r="C3" s="11">
+        <v>11114.213</v>
+      </c>
+      <c r="D3" s="11">
+        <v>8262.6570000000011</v>
+      </c>
+      <c r="E3" s="11">
+        <v>8965.4130000000005</v>
+      </c>
+      <c r="F3" s="11">
+        <v>8010.5630000000001</v>
+      </c>
+      <c r="G3" s="11">
+        <v>11638.136999999999</v>
+      </c>
+      <c r="H3" s="11">
+        <v>9767.4390000000003</v>
+      </c>
+      <c r="I3" s="11">
+        <v>8789.84</v>
+      </c>
+      <c r="J3" s="11">
+        <v>9691.4429999999993</v>
+      </c>
+      <c r="K3" s="11">
+        <v>10855.462</v>
+      </c>
+      <c r="L3" s="11">
+        <v>12239.288</v>
+      </c>
+      <c r="M3" s="11">
+        <v>11995.248</v>
+      </c>
+      <c r="N3" s="11">
+        <v>11830.156999999999</v>
+      </c>
+      <c r="O3" s="11">
+        <v>12130.575000000001</v>
+      </c>
+      <c r="P3" s="11">
+        <v>12002.663</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>13024.977999999999</v>
+      </c>
+      <c r="R3" s="11">
+        <v>12773.714</v>
+      </c>
+      <c r="S3" s="11">
+        <v>11424.689</v>
+      </c>
+      <c r="T3" s="11">
+        <v>12279.582</v>
+      </c>
+      <c r="U3" s="11">
+        <v>12087.027999999998</v>
+      </c>
+      <c r="V3" s="11">
+        <v>11960.353999999999</v>
+      </c>
+      <c r="W3" s="11">
+        <v>11946.653</v>
+      </c>
+      <c r="X3" s="11">
+        <v>11260.277</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>10752.310000000001</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>8672.2829999999994</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>5710.2889999999998</v>
+      </c>
+      <c r="AB3" s="11">
+        <v>7743.7470000000003</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>8662.2549999999992</v>
+      </c>
+      <c r="AD3" s="11">
+        <v>10335.531999999999</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>11066.504000000001</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>11661.380000000001</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>12106.004000000001</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>12180.300999999999</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>11189.985000000001</v>
+      </c>
+      <c r="AJ3" s="11">
+        <v>11297.911</v>
+      </c>
+      <c r="AK3" s="11">
+        <v>10873.666999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="13">
+        <v>6696.1080000000002</v>
+      </c>
+      <c r="C4" s="13">
+        <v>9329.1039999999994</v>
+      </c>
+      <c r="D4" s="13">
+        <v>6545.9080000000004</v>
+      </c>
+      <c r="E4" s="13">
+        <v>6705.8370000000004</v>
+      </c>
+      <c r="F4" s="13">
+        <v>6372.3040000000001</v>
+      </c>
+      <c r="G4" s="13">
+        <v>8186.0429999999997</v>
+      </c>
+      <c r="H4" s="13">
+        <v>6077.9030000000002</v>
+      </c>
+      <c r="I4" s="13">
+        <v>5439.8639999999996</v>
+      </c>
+      <c r="J4" s="13">
+        <v>5666.8909999999996</v>
+      </c>
+      <c r="K4" s="13">
+        <v>5982.12</v>
+      </c>
+      <c r="L4" s="13">
+        <v>6601.22</v>
+      </c>
+      <c r="M4" s="13">
+        <v>6325.9669999999996</v>
+      </c>
+      <c r="N4" s="13">
+        <v>6035.2349999999997</v>
+      </c>
+      <c r="O4" s="13">
+        <v>5878.2209999999995</v>
+      </c>
+      <c r="P4" s="13">
+        <v>5492.473</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>5577.7489999999998</v>
+      </c>
+      <c r="R4" s="13">
+        <v>5470.9170000000004</v>
+      </c>
+      <c r="S4" s="13">
+        <v>4808.0190000000002</v>
+      </c>
+      <c r="T4" s="13">
+        <v>4957.3770000000004</v>
+      </c>
+      <c r="U4" s="13">
+        <v>4453.3689999999997</v>
+      </c>
+      <c r="V4" s="13">
+        <v>4165.9250000000002</v>
+      </c>
+      <c r="W4" s="13">
+        <v>4265.8720000000003</v>
+      </c>
+      <c r="X4" s="13">
+        <v>4311.6959999999999</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>3867.268</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>3731.3829999999998</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>2196.4459999999999</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>2731.759</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>2977.7109999999998</v>
+      </c>
+      <c r="AD4" s="13">
+        <v>4109.0129999999999</v>
+      </c>
+      <c r="AE4" s="13">
+        <v>4368.835</v>
+      </c>
+      <c r="AF4" s="13">
+        <v>4253.098</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>4162.808</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>3916.5839999999998</v>
+      </c>
+      <c r="AI4" s="13">
+        <v>3033.2159999999999</v>
+      </c>
+      <c r="AJ4" s="13">
+        <v>2785.1640000000002</v>
+      </c>
+      <c r="AK4" s="13">
+        <v>2511.7109999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1198.1120000000001</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1785.1089999999999</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1716.749</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2259.576</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1638.259</v>
+      </c>
+      <c r="G5" s="13">
+        <v>3452.0940000000001</v>
+      </c>
+      <c r="H5" s="13">
+        <v>3689.5360000000001</v>
+      </c>
+      <c r="I5" s="13">
+        <v>3349.9760000000001</v>
+      </c>
+      <c r="J5" s="13">
+        <v>4024.5520000000001</v>
+      </c>
+      <c r="K5" s="13">
+        <v>4873.3419999999996</v>
+      </c>
+      <c r="L5" s="13">
+        <v>5638.0680000000002</v>
+      </c>
+      <c r="M5" s="13">
+        <v>5669.2809999999999</v>
+      </c>
+      <c r="N5" s="13">
+        <v>5794.9219999999996</v>
+      </c>
+      <c r="O5" s="13">
+        <v>6252.3540000000003</v>
+      </c>
+      <c r="P5" s="13">
+        <v>6510.19</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>7447.2290000000003</v>
+      </c>
+      <c r="R5" s="13">
+        <v>7302.7969999999996</v>
+      </c>
+      <c r="S5" s="13">
+        <v>6616.67</v>
+      </c>
+      <c r="T5" s="13">
+        <v>7322.2049999999999</v>
+      </c>
+      <c r="U5" s="13">
+        <v>7633.6589999999997</v>
+      </c>
+      <c r="V5" s="13">
+        <v>7794.4290000000001</v>
+      </c>
+      <c r="W5" s="13">
+        <v>7680.7809999999999</v>
+      </c>
+      <c r="X5" s="13">
+        <v>6948.5810000000001</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>6885.0420000000004</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>4940.8999999999996</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>3513.8429999999998</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>5011.9880000000003</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>5684.5439999999999</v>
+      </c>
+      <c r="AD5" s="13">
+        <v>6226.5190000000002</v>
+      </c>
+      <c r="AE5" s="13">
+        <v>6697.6689999999999</v>
+      </c>
+      <c r="AF5" s="13">
+        <v>7408.2820000000002</v>
+      </c>
+      <c r="AG5" s="13">
+        <v>7943.1959999999999</v>
+      </c>
+      <c r="AH5" s="13">
+        <v>8263.7170000000006</v>
+      </c>
+      <c r="AI5" s="13">
+        <v>8156.7690000000002</v>
+      </c>
+      <c r="AJ5" s="13">
+        <v>8512.7469999999994</v>
+      </c>
+      <c r="AK5" s="13">
+        <v>8361.9560000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="11">
+        <v>10302</v>
+      </c>
+      <c r="D6" s="11">
+        <v>8849.3349999999991</v>
+      </c>
+      <c r="E6" s="11">
+        <v>9298.3150000000005</v>
+      </c>
+      <c r="F6" s="11">
+        <v>8594.4869999999992</v>
+      </c>
+      <c r="G6" s="11">
+        <v>12109.999</v>
+      </c>
+      <c r="H6" s="11">
+        <v>11133.504000000001</v>
+      </c>
+      <c r="I6" s="11">
+        <v>9975.7980000000007</v>
+      </c>
+      <c r="J6" s="11">
+        <v>10767.684999999999</v>
+      </c>
+      <c r="K6" s="11">
+        <v>12029.050999999999</v>
+      </c>
+      <c r="L6" s="11">
+        <v>13251.198</v>
+      </c>
+      <c r="M6" s="11">
+        <v>13192.861000000001</v>
+      </c>
+      <c r="N6" s="11">
+        <v>13732.379000000001</v>
+      </c>
+      <c r="O6" s="11">
+        <v>13549.251</v>
+      </c>
+      <c r="P6" s="11">
+        <v>13913.028</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>14901.266</v>
+      </c>
+      <c r="R6" s="11">
+        <v>14922.647999999999</v>
+      </c>
+      <c r="S6" s="11">
+        <v>14372.624</v>
+      </c>
+      <c r="T6" s="11">
+        <v>13829.567999999999</v>
+      </c>
+      <c r="U6" s="11">
+        <v>13638.351000000001</v>
+      </c>
+      <c r="V6" s="11">
+        <v>13880.251</v>
+      </c>
+      <c r="W6" s="11">
+        <v>14020.528</v>
+      </c>
+      <c r="X6" s="11">
+        <v>13334.843000000001</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>12687.016</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>10107.753000000001</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>7867.7659999999996</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>9020.0879999999997</v>
+      </c>
+      <c r="AC6" s="11">
+        <v>10108.762000000001</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>11581.776</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>12479.306</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>13388.628000000001</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>14127.526</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>13969.117</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>13644.445</v>
+      </c>
+      <c r="AJ6" s="11">
+        <v>13716.683000000001</v>
+      </c>
+      <c r="AK6" s="11">
+        <v>13678.040999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="13">
+        <v>8763</v>
+      </c>
+      <c r="D7" s="13">
+        <v>7112.067</v>
+      </c>
+      <c r="E7" s="13">
+        <v>6945.0339999999997</v>
+      </c>
+      <c r="F7" s="13">
+        <v>6579.7780000000002</v>
+      </c>
+      <c r="G7" s="13">
+        <v>8204.67</v>
+      </c>
+      <c r="H7" s="13">
+        <v>6916.86</v>
+      </c>
+      <c r="I7" s="13">
+        <v>6161.5730000000003</v>
+      </c>
+      <c r="J7" s="13">
+        <v>6285.9160000000002</v>
+      </c>
+      <c r="K7" s="13">
+        <v>6741.6670000000004</v>
+      </c>
+      <c r="L7" s="13">
+        <v>7255.3029999999999</v>
+      </c>
+      <c r="M7" s="13">
+        <v>7113.902</v>
+      </c>
+      <c r="N7" s="13">
+        <v>7206.3490000000002</v>
+      </c>
+      <c r="O7" s="13">
+        <v>6862.1750000000002</v>
+      </c>
+      <c r="P7" s="13">
+        <v>6705.2079999999996</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>6918.7809999999999</v>
+      </c>
+      <c r="R7" s="13">
+        <v>6761.6030000000001</v>
+      </c>
+      <c r="S7" s="13">
+        <v>6254.3710000000001</v>
+      </c>
+      <c r="T7" s="13">
+        <v>5816.6710000000003</v>
+      </c>
+      <c r="U7" s="13">
+        <v>5472.5</v>
+      </c>
+      <c r="V7" s="13">
+        <v>5333.4960000000001</v>
+      </c>
+      <c r="W7" s="13">
+        <v>5473.45</v>
+      </c>
+      <c r="X7" s="13">
+        <v>5416.8280000000004</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>5197.2709999999997</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>4490.8630000000003</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>3558.2829999999999</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>3791.4989999999998</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>4145.9639999999999</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>5119.8440000000001</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>5433.1580000000004</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>5609.8779999999997</v>
+      </c>
+      <c r="AG7" s="13">
+        <v>5595.1229999999996</v>
+      </c>
+      <c r="AH7" s="13">
+        <v>5145.5749999999998</v>
+      </c>
+      <c r="AI7" s="13">
+        <v>4592.9650000000001</v>
+      </c>
+      <c r="AJ7" s="13">
+        <v>4086.8890000000001</v>
+      </c>
+      <c r="AK7" s="13">
+        <v>3543.9229999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1539</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1737.268</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2353.2809999999999</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2014.7090000000001</v>
+      </c>
+      <c r="G8" s="13">
+        <v>3905.3290000000002</v>
+      </c>
+      <c r="H8" s="13">
+        <v>4216.6440000000002</v>
+      </c>
+      <c r="I8" s="13">
+        <v>3814.2249999999999</v>
+      </c>
+      <c r="J8" s="13">
+        <v>4481.7690000000002</v>
+      </c>
+      <c r="K8" s="13">
+        <v>5287.384</v>
+      </c>
+      <c r="L8" s="13">
+        <v>5995.8950000000004</v>
+      </c>
+      <c r="M8" s="13">
+        <v>6078.9589999999998</v>
+      </c>
+      <c r="N8" s="13">
+        <v>6526.03</v>
+      </c>
+      <c r="O8" s="13">
+        <v>6687.076</v>
+      </c>
+      <c r="P8" s="13">
+        <v>7207.82</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>7982.4849999999997</v>
+      </c>
+      <c r="R8" s="13">
+        <v>8161.0450000000001</v>
+      </c>
+      <c r="S8" s="13">
+        <v>8118.2529999999997</v>
+      </c>
+      <c r="T8" s="13">
+        <v>8012.8969999999999</v>
+      </c>
+      <c r="U8" s="13">
+        <v>8165.8509999999997</v>
+      </c>
+      <c r="V8" s="13">
+        <v>8546.7549999999992</v>
+      </c>
+      <c r="W8" s="13">
+        <v>8547.0779999999995</v>
+      </c>
+      <c r="X8" s="13">
+        <v>7918.0150000000003</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>7489.7449999999999</v>
+      </c>
+      <c r="Z8" s="15">
+        <v>5616.89</v>
+      </c>
+      <c r="AA8" s="15">
+        <v>4309.4830000000002</v>
+      </c>
+      <c r="AB8" s="15">
+        <v>5228.5889999999999</v>
+      </c>
+      <c r="AC8" s="15">
+        <v>5962.7979999999998</v>
+      </c>
+      <c r="AD8" s="15">
+        <v>6461.9319999999998</v>
+      </c>
+      <c r="AE8" s="15">
+        <v>7046.1480000000001</v>
+      </c>
+      <c r="AF8" s="15">
+        <v>7778.75</v>
+      </c>
+      <c r="AG8" s="15">
+        <v>8532.4030000000002</v>
+      </c>
+      <c r="AH8" s="15">
+        <v>8823.5419999999995</v>
+      </c>
+      <c r="AI8" s="15">
+        <v>9051.48</v>
+      </c>
+      <c r="AJ8" s="15">
+        <v>9629.7939999999999</v>
+      </c>
+      <c r="AK8" s="15">
+        <v>10134.118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+    </row>
+    <row r="10" spans="1:37" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+    </row>
+    <row r="11" spans="1:37" s="19" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+    </row>
+    <row r="12" spans="1:37" s="19" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+    </row>
+    <row r="13" spans="1:37" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+    </row>
+    <row r="14" spans="1:37" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="A11:T11"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A13:T13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9819E6-C580-46DF-A312-29294DE86DDD}">
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>27760</v>
+      </c>
+      <c r="B3" s="30">
+        <v>12.966083333333334</v>
+      </c>
+      <c r="C3">
+        <f>YEAR(A3)</f>
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>28126</v>
+      </c>
+      <c r="B4" s="30">
+        <v>14.485749999999999</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C48" si="0">YEAR(A4)</f>
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>28491</v>
+      </c>
+      <c r="B5" s="30">
+        <v>14.972833333333334</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>28856</v>
+      </c>
+      <c r="B6" s="30">
+        <v>13.768000000000001</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>29221</v>
+      </c>
+      <c r="B7" s="30">
+        <v>11.192416666666666</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <v>29587</v>
+      </c>
+      <c r="B8" s="30">
+        <v>10.564</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>29952</v>
+      </c>
+      <c r="B9" s="30">
+        <v>10.363333333333333</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>30317</v>
+      </c>
+      <c r="B10" s="30">
+        <v>12.11975</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>30682</v>
+      </c>
+      <c r="B11" s="30">
+        <v>14.19725</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>31048</v>
+      </c>
+      <c r="B12" s="30">
+        <v>15.442583333333333</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>31413</v>
+      </c>
+      <c r="B13" s="30">
+        <v>16.0505</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>31778</v>
+      </c>
+      <c r="B14" s="30">
+        <v>14.860583333333333</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>32143</v>
+      </c>
+      <c r="B15" s="30">
+        <v>15.436333333333334</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>32509</v>
+      </c>
+      <c r="B16" s="30">
+        <v>14.528916666666667</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>32874</v>
+      </c>
+      <c r="B17" s="30">
+        <v>13.863</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <v>33239</v>
+      </c>
+      <c r="B18" s="30">
+        <v>12.314166666666667</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>33604</v>
+      </c>
+      <c r="B19" s="30">
+        <v>12.859833333333333</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <v>33970</v>
+      </c>
+      <c r="B20" s="30">
+        <v>13.873583333333332</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>34335</v>
+      </c>
+      <c r="B21" s="30">
+        <v>15.044166666666667</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
+        <v>34700</v>
+      </c>
+      <c r="B22" s="30">
+        <v>14.728083333333334</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
+        <v>35065</v>
+      </c>
+      <c r="B23" s="30">
+        <v>15.097333333333333</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
+        <v>35431</v>
+      </c>
+      <c r="B24" s="30">
+        <v>15.122416666666666</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>35796</v>
+      </c>
+      <c r="B25" s="30">
+        <v>15.542999999999999</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <v>36161</v>
+      </c>
+      <c r="B26" s="30">
+        <v>16.893666666666668</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="29">
+        <v>36526</v>
+      </c>
+      <c r="B27" s="30">
+        <v>17.349583333333332</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="29">
+        <v>36892</v>
+      </c>
+      <c r="B28" s="30">
+        <v>17.122166666666665</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="29">
+        <v>37257</v>
+      </c>
+      <c r="B29" s="30">
+        <v>16.816416666666665</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="29">
+        <v>37622</v>
+      </c>
+      <c r="B30" s="30">
+        <v>16.639083333333332</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="29">
+        <v>37987</v>
+      </c>
+      <c r="B31" s="30">
+        <v>16.866833333333332</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
+        <v>38353</v>
+      </c>
+      <c r="B32" s="30">
+        <v>16.948333333333334</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="29">
+        <v>38718</v>
+      </c>
+      <c r="B33" s="30">
+        <v>16.504166666666666</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="29">
+        <v>39083</v>
+      </c>
+      <c r="B34" s="30">
+        <v>16.08925</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="29">
+        <v>39448</v>
+      </c>
+      <c r="B35" s="30">
+        <v>13.195</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="29">
+        <v>39814</v>
+      </c>
+      <c r="B36" s="30">
+        <v>10.4025</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="29">
+        <v>40179</v>
+      </c>
+      <c r="B37" s="30">
+        <v>11.55475</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="29">
+        <v>40544</v>
+      </c>
+      <c r="B38" s="30">
+        <v>12.743166666666667</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="29">
+        <v>40909</v>
+      </c>
+      <c r="B39" s="30">
+        <v>14.434666666666667</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="29">
+        <v>41275</v>
+      </c>
+      <c r="B40" s="30">
+        <v>15.530083333333334</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="29">
+        <v>41640</v>
+      </c>
+      <c r="B41" s="30">
+        <v>16.452249999999999</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="29">
+        <v>42005</v>
+      </c>
+      <c r="B42" s="30">
+        <v>17.407833333333333</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="29">
+        <v>42370</v>
+      </c>
+      <c r="B43" s="30">
+        <v>17.477250000000002</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="29">
+        <v>42736</v>
+      </c>
+      <c r="B44" s="30">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="29">
+        <v>43101</v>
+      </c>
+      <c r="B45" s="30">
+        <v>17.225083333333334</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="29">
+        <v>43466</v>
+      </c>
+      <c r="B46" s="30">
+        <v>16.961166666666667</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="29">
+        <v>43831</v>
+      </c>
+      <c r="B47" s="30">
+        <v>14.435499999999999</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="29">
+        <v>44197</v>
+      </c>
+      <c r="B48" s="31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFF2D55-C7AB-4AB1-B16E-5B07E751605A}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:BJ10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7542,94 +11091,124 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(B1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>13863000</v>
       </c>
       <c r="C4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(C1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>12314166.666666666</v>
       </c>
       <c r="D4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(D1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>12859833.333333332</v>
       </c>
       <c r="E4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(E1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>13873583.333333332</v>
       </c>
       <c r="F4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(F1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>15044166.666666668</v>
       </c>
       <c r="G4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(G1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>14728083.333333334</v>
       </c>
       <c r="H4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(H1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>15097333.333333334</v>
       </c>
       <c r="I4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(I1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>15122416.666666666</v>
       </c>
       <c r="J4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(J1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>15543000</v>
       </c>
       <c r="K4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(K1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>16893666.666666668</v>
       </c>
       <c r="L4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(L1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>17349583.333333332</v>
       </c>
       <c r="M4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(M1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>17122166.666666664</v>
       </c>
       <c r="N4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(N1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>16816416.666666664</v>
       </c>
       <c r="O4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(O1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>16639083.333333332</v>
       </c>
       <c r="P4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(P1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>16866833.333333332</v>
       </c>
       <c r="Q4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(Q1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>16948333.333333336</v>
       </c>
       <c r="R4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(R1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>16504166.666666666</v>
       </c>
       <c r="S4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(S1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>16089250</v>
       </c>
       <c r="T4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(T1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>13195000</v>
       </c>
       <c r="U4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(U1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>10402500</v>
       </c>
       <c r="V4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(V1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>11554750</v>
       </c>
       <c r="W4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(W1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>12743166.666666668</v>
       </c>
       <c r="X4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(X1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>14434666.666666666</v>
       </c>
       <c r="Y4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(Y1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>15530083.333333334</v>
       </c>
       <c r="Z4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(Z1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>16452250</v>
       </c>
       <c r="AA4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(AA1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>17407833.333333332</v>
       </c>
       <c r="AB4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(AB1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>17477250</v>
       </c>
       <c r="AC4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(AC1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>17150000</v>
       </c>
       <c r="AD4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(AD1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>17225083.333333336</v>
       </c>
       <c r="AE4" s="3">
-        <v>15000000</v>
+        <f>INDEX('FRED Data'!$B$17:$B$46,MATCH(_xlfn.NUMBERVALUE(RIGHT(AE1,4)),'FRED Data'!$C$17:$C$46,0),1)*10^6</f>
+        <v>16961166.666666668</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -8518,7 +12097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2FAB8A-9D7A-4204-93CD-E4C86CB7BA7B}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -10035,1566 +13614,6 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4986D7A-874A-44F8-9F6D-9801C9E99BF1}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:BJ10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0</v>
-      </c>
-      <c r="U2" s="3">
-        <v>0</v>
-      </c>
-      <c r="V2" s="3">
-        <v>0</v>
-      </c>
-      <c r="W2" s="3">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="3">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3">
-        <v>0</v>
-      </c>
-      <c r="W3" s="3">
-        <v>0</v>
-      </c>
-      <c r="X3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="C5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="D5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="F5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="G5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="H5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="I5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="J5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="K5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="L5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="M5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="N5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="O5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="P5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="R5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="S5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="T5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="U5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="V5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="W5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="X5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
         <v>0</v>
       </c>
     </row>
@@ -11639,14 +13658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D3099F-7694-4C7C-A6F0-479D8B6DE8D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4986D7A-874A-44F8-9F6D-9801C9E99BF1}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:BJ10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12411,94 +14430,94 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="C5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="D5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="E5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="F5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="G5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="I5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="J5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="K5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="L5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="M5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="N5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="O5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="P5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="Q5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="R5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="S5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="T5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="U5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="V5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="W5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="X5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="Y5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="Z5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="AA5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="AB5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="AC5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="AD5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="AE5" s="3">
-        <v>450000</v>
+        <v>40000</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -13199,14 +15218,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA44EC2B-48F6-4A5C-9276-E7BAB9CE0CD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D3099F-7694-4C7C-A6F0-479D8B6DE8D5}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:BJ10"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:BJ8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13971,94 +15990,94 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="C5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="D5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="E5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="F5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="G5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="H5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="I5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="J5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="K5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="L5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="M5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="N5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="O5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="P5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="Q5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="R5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="S5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="T5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="U5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="V5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="W5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="X5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="Y5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="Z5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="AA5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="AB5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="AC5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="AD5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="AE5" s="3">
-        <v>20</v>
+        <v>450000</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -14759,14 +16778,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E22D50-07A5-4BF3-B0FB-0F81A71823BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA44EC2B-48F6-4A5C-9276-E7BAB9CE0CD8}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:BJ10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:BJ8"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:BJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16319,7 +18338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B50BBF-8C3F-4557-B33F-DDD8D31D0AD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E22D50-07A5-4BF3-B0FB-0F81A71823BB}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -17879,7 +19898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20D7FC0-26D3-4A54-89AD-73A474F216BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B50BBF-8C3F-4557-B33F-DDD8D31D0AD3}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
